--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>228.935086540269</v>
+        <v>230.4028776666667</v>
       </c>
       <c r="H2">
-        <v>228.935086540269</v>
+        <v>691.208633</v>
       </c>
       <c r="I2">
-        <v>0.5829455397001138</v>
+        <v>0.5806109522726741</v>
       </c>
       <c r="J2">
-        <v>0.5829455397001138</v>
+        <v>0.580610952272674</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.76486082781604</v>
+        <v>4.260928666666667</v>
       </c>
       <c r="N2">
-        <v>3.76486082781604</v>
+        <v>12.782786</v>
       </c>
       <c r="O2">
-        <v>0.05287274031666574</v>
+        <v>0.05853043679913345</v>
       </c>
       <c r="P2">
-        <v>0.05287274031666574</v>
+        <v>0.05853043679913345</v>
       </c>
       <c r="Q2">
-        <v>861.9087394281338</v>
+        <v>981.730226332393</v>
       </c>
       <c r="R2">
-        <v>861.9087394281338</v>
+        <v>8835.572036991538</v>
       </c>
       <c r="S2">
-        <v>0.03082192813932267</v>
+        <v>0.03398341264688044</v>
       </c>
       <c r="T2">
-        <v>0.03082192813932267</v>
+        <v>0.03398341264688043</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>228.935086540269</v>
+        <v>230.4028776666667</v>
       </c>
       <c r="H3">
-        <v>228.935086540269</v>
+        <v>691.208633</v>
       </c>
       <c r="I3">
-        <v>0.5829455397001138</v>
+        <v>0.5806109522726741</v>
       </c>
       <c r="J3">
-        <v>0.5829455397001138</v>
+        <v>0.580610952272674</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.3133325243859</v>
+        <v>47.585289</v>
       </c>
       <c r="N3">
-        <v>47.3133325243859</v>
+        <v>142.755867</v>
       </c>
       <c r="O3">
-        <v>0.6644563128589953</v>
+        <v>0.6536574461270807</v>
       </c>
       <c r="P3">
-        <v>0.6644563128589953</v>
+        <v>0.6536574461270805</v>
       </c>
       <c r="Q3">
-        <v>10831.68187597881</v>
+        <v>10963.78752019998</v>
       </c>
       <c r="R3">
-        <v>10831.68187597881</v>
+        <v>98674.08768179981</v>
       </c>
       <c r="S3">
-        <v>0.3873418439067347</v>
+        <v>0.3795206722559685</v>
       </c>
       <c r="T3">
-        <v>0.3873418439067347</v>
+        <v>0.3795206722559684</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>228.935086540269</v>
+        <v>230.4028776666667</v>
       </c>
       <c r="H4">
-        <v>228.935086540269</v>
+        <v>691.208633</v>
       </c>
       <c r="I4">
-        <v>0.5829455397001138</v>
+        <v>0.5806109522726741</v>
       </c>
       <c r="J4">
-        <v>0.5829455397001138</v>
+        <v>0.580610952272674</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.50451747818206</v>
+        <v>5.555122999999999</v>
       </c>
       <c r="N4">
-        <v>5.50451747818206</v>
+        <v>16.665369</v>
       </c>
       <c r="O4">
-        <v>0.07730403234089711</v>
+        <v>0.07630819502014176</v>
       </c>
       <c r="P4">
-        <v>0.07730403234089711</v>
+        <v>0.07630819502014174</v>
       </c>
       <c r="Q4">
-        <v>1260.177185230033</v>
+        <v>1279.916324992286</v>
       </c>
       <c r="R4">
-        <v>1260.177185230033</v>
+        <v>11519.24692493058</v>
       </c>
       <c r="S4">
-        <v>0.04506404085395931</v>
+        <v>0.04430537377685344</v>
       </c>
       <c r="T4">
-        <v>0.04506404085395931</v>
+        <v>0.04430537377685342</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>228.935086540269</v>
+        <v>230.4028776666667</v>
       </c>
       <c r="H5">
-        <v>228.935086540269</v>
+        <v>691.208633</v>
       </c>
       <c r="I5">
-        <v>0.5829455397001138</v>
+        <v>0.5806109522726741</v>
       </c>
       <c r="J5">
-        <v>0.5829455397001138</v>
+        <v>0.580610952272674</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.60844907802599</v>
+        <v>7.6722</v>
       </c>
       <c r="N5">
-        <v>7.60844907802599</v>
+        <v>23.0166</v>
       </c>
       <c r="O5">
-        <v>0.1068511083710899</v>
+        <v>0.1053895177178852</v>
       </c>
       <c r="P5">
-        <v>0.1068511083710899</v>
+        <v>0.1053895177178852</v>
       </c>
       <c r="Q5">
-        <v>1741.84094811511</v>
+        <v>1767.6969580342</v>
       </c>
       <c r="R5">
-        <v>1741.84094811511</v>
+        <v>15909.2726223078</v>
       </c>
       <c r="S5">
-        <v>0.06228837703694037</v>
+        <v>0.0611903082417392</v>
       </c>
       <c r="T5">
-        <v>0.06228837703694037</v>
+        <v>0.06119030824173918</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>228.935086540269</v>
+        <v>230.4028776666667</v>
       </c>
       <c r="H6">
-        <v>228.935086540269</v>
+        <v>691.208633</v>
       </c>
       <c r="I6">
-        <v>0.5829455397001138</v>
+        <v>0.5806109522726741</v>
       </c>
       <c r="J6">
-        <v>0.5829455397001138</v>
+        <v>0.580610952272674</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.01492483899505</v>
+        <v>7.724970666666667</v>
       </c>
       <c r="N6">
-        <v>7.01492483899505</v>
+        <v>23.174912</v>
       </c>
       <c r="O6">
-        <v>0.09851580611235186</v>
+        <v>0.106114404335759</v>
       </c>
       <c r="P6">
-        <v>0.09851580611235186</v>
+        <v>0.106114404335759</v>
       </c>
       <c r="Q6">
-        <v>1605.962425088814</v>
+        <v>1779.855471490588</v>
       </c>
       <c r="R6">
-        <v>1605.962425088814</v>
+        <v>16018.69924341529</v>
       </c>
       <c r="S6">
-        <v>0.05742934976315672</v>
+        <v>0.06161118535123261</v>
       </c>
       <c r="T6">
-        <v>0.05742934976315672</v>
+        <v>0.06161118535123259</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>134.465186013425</v>
+        <v>134.7127306666667</v>
       </c>
       <c r="H7">
-        <v>134.465186013425</v>
+        <v>404.138192</v>
       </c>
       <c r="I7">
-        <v>0.3423934776274863</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="J7">
-        <v>0.3423934776274863</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.76486082781604</v>
+        <v>4.260928666666667</v>
       </c>
       <c r="N7">
-        <v>3.76486082781604</v>
+        <v>12.782786</v>
       </c>
       <c r="O7">
-        <v>0.05287274031666574</v>
+        <v>0.05853043679913345</v>
       </c>
       <c r="P7">
-        <v>0.05287274031666574</v>
+        <v>0.05853043679913345</v>
       </c>
       <c r="Q7">
-        <v>506.2427115269411</v>
+        <v>574.0013358625457</v>
       </c>
       <c r="R7">
-        <v>506.2427115269411</v>
+        <v>5166.012022762912</v>
       </c>
       <c r="S7">
-        <v>0.01810328142871818</v>
+        <v>0.0198695361854663</v>
       </c>
       <c r="T7">
-        <v>0.01810328142871818</v>
+        <v>0.0198695361854663</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>134.465186013425</v>
+        <v>134.7127306666667</v>
       </c>
       <c r="H8">
-        <v>134.465186013425</v>
+        <v>404.138192</v>
       </c>
       <c r="I8">
-        <v>0.3423934776274863</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="J8">
-        <v>0.3423934776274863</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.3133325243859</v>
+        <v>47.585289</v>
       </c>
       <c r="N8">
-        <v>47.3133325243859</v>
+        <v>142.755867</v>
       </c>
       <c r="O8">
-        <v>0.6644563128589953</v>
+        <v>0.6536574461270807</v>
       </c>
       <c r="P8">
-        <v>0.6644563128589953</v>
+        <v>0.6536574461270805</v>
       </c>
       <c r="Q8">
-        <v>6361.996058806581</v>
+        <v>6410.344220752495</v>
       </c>
       <c r="R8">
-        <v>6361.996058806581</v>
+        <v>57693.09798677246</v>
       </c>
       <c r="S8">
-        <v>0.2275055076913284</v>
+        <v>0.221899425136595</v>
       </c>
       <c r="T8">
-        <v>0.2275055076913284</v>
+        <v>0.2218994251365949</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>134.465186013425</v>
+        <v>134.7127306666667</v>
       </c>
       <c r="H9">
-        <v>134.465186013425</v>
+        <v>404.138192</v>
       </c>
       <c r="I9">
-        <v>0.3423934776274863</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="J9">
-        <v>0.3423934776274863</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.50451747818206</v>
+        <v>5.555122999999999</v>
       </c>
       <c r="N9">
-        <v>5.50451747818206</v>
+        <v>16.665369</v>
       </c>
       <c r="O9">
-        <v>0.07730403234089711</v>
+        <v>0.07630819502014176</v>
       </c>
       <c r="P9">
-        <v>0.07730403234089711</v>
+        <v>0.07630819502014174</v>
       </c>
       <c r="Q9">
-        <v>740.1659666178998</v>
+        <v>748.3457885192051</v>
       </c>
       <c r="R9">
-        <v>740.1659666178998</v>
+        <v>6735.112096672848</v>
       </c>
       <c r="S9">
-        <v>0.02646839646782743</v>
+        <v>0.02590461519027607</v>
       </c>
       <c r="T9">
-        <v>0.02646839646782743</v>
+        <v>0.02590461519027606</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>134.465186013425</v>
+        <v>134.7127306666667</v>
       </c>
       <c r="H10">
-        <v>134.465186013425</v>
+        <v>404.138192</v>
       </c>
       <c r="I10">
-        <v>0.3423934776274863</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="J10">
-        <v>0.3423934776274863</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.60844907802599</v>
+        <v>7.6722</v>
       </c>
       <c r="N10">
-        <v>7.60844907802599</v>
+        <v>23.0166</v>
       </c>
       <c r="O10">
-        <v>0.1068511083710899</v>
+        <v>0.1053895177178852</v>
       </c>
       <c r="P10">
-        <v>0.1068511083710899</v>
+        <v>0.1053895177178852</v>
       </c>
       <c r="Q10">
-        <v>1023.071520550437</v>
+        <v>1033.5430122208</v>
       </c>
       <c r="R10">
-        <v>1023.071520550437</v>
+        <v>9301.887109987199</v>
       </c>
       <c r="S10">
-        <v>0.0365851225835289</v>
+        <v>0.03577695555306985</v>
       </c>
       <c r="T10">
-        <v>0.0365851225835289</v>
+        <v>0.03577695555306985</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>134.465186013425</v>
+        <v>134.7127306666667</v>
       </c>
       <c r="H11">
-        <v>134.465186013425</v>
+        <v>404.138192</v>
       </c>
       <c r="I11">
-        <v>0.3423934776274863</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="J11">
-        <v>0.3423934776274863</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.01492483899505</v>
+        <v>7.724970666666667</v>
       </c>
       <c r="N11">
-        <v>7.01492483899505</v>
+        <v>23.174912</v>
       </c>
       <c r="O11">
-        <v>0.09851580611235186</v>
+        <v>0.106114404335759</v>
       </c>
       <c r="P11">
-        <v>0.09851580611235186</v>
+        <v>0.106114404335759</v>
       </c>
       <c r="Q11">
-        <v>943.2631733456649</v>
+        <v>1040.651892826567</v>
       </c>
       <c r="R11">
-        <v>943.2631733456649</v>
+        <v>9365.867035439103</v>
       </c>
       <c r="S11">
-        <v>0.03373116945608332</v>
+        <v>0.03602303539924686</v>
       </c>
       <c r="T11">
-        <v>0.03373116945608332</v>
+        <v>0.03602303539924685</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.109875835497129</v>
+        <v>0.1219473333333333</v>
       </c>
       <c r="H12">
-        <v>0.109875835497129</v>
+        <v>0.365842</v>
       </c>
       <c r="I12">
-        <v>0.0002797807413089924</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="J12">
-        <v>0.0002797807413089924</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.76486082781604</v>
+        <v>4.260928666666667</v>
       </c>
       <c r="N12">
-        <v>3.76486082781604</v>
+        <v>12.782786</v>
       </c>
       <c r="O12">
-        <v>0.05287274031666574</v>
+        <v>0.05853043679913345</v>
       </c>
       <c r="P12">
-        <v>0.05287274031666574</v>
+        <v>0.05853043679913345</v>
       </c>
       <c r="Q12">
-        <v>0.4136672289867001</v>
+        <v>0.5196088884235556</v>
       </c>
       <c r="R12">
-        <v>0.4136672289867001</v>
+        <v>4.676479995812</v>
       </c>
       <c r="S12">
-        <v>1.479277448083459E-05</v>
+        <v>1.798669613774924E-05</v>
       </c>
       <c r="T12">
-        <v>1.479277448083459E-05</v>
+        <v>1.798669613774924E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.109875835497129</v>
+        <v>0.1219473333333333</v>
       </c>
       <c r="H13">
-        <v>0.109875835497129</v>
+        <v>0.365842</v>
       </c>
       <c r="I13">
-        <v>0.0002797807413089924</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="J13">
-        <v>0.0002797807413089924</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>47.3133325243859</v>
+        <v>47.585289</v>
       </c>
       <c r="N13">
-        <v>47.3133325243859</v>
+        <v>142.755867</v>
       </c>
       <c r="O13">
-        <v>0.6644563128589953</v>
+        <v>0.6536574461270807</v>
       </c>
       <c r="P13">
-        <v>0.6644563128589953</v>
+        <v>0.6536574461270805</v>
       </c>
       <c r="Q13">
-        <v>5.198591941270388</v>
+        <v>5.802899099446</v>
       </c>
       <c r="R13">
-        <v>5.198591941270388</v>
+        <v>52.226091895014</v>
       </c>
       <c r="S13">
-        <v>0.0001859020797791295</v>
+        <v>0.0002008722043543516</v>
       </c>
       <c r="T13">
-        <v>0.0001859020797791295</v>
+        <v>0.0002008722043543516</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.109875835497129</v>
+        <v>0.1219473333333333</v>
       </c>
       <c r="H14">
-        <v>0.109875835497129</v>
+        <v>0.365842</v>
       </c>
       <c r="I14">
-        <v>0.0002797807413089924</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="J14">
-        <v>0.0002797807413089924</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.50451747818206</v>
+        <v>5.555122999999999</v>
       </c>
       <c r="N14">
-        <v>5.50451747818206</v>
+        <v>16.665369</v>
       </c>
       <c r="O14">
-        <v>0.07730403234089711</v>
+        <v>0.07630819502014176</v>
       </c>
       <c r="P14">
-        <v>0.07730403234089711</v>
+        <v>0.07630819502014174</v>
       </c>
       <c r="Q14">
-        <v>0.6048134569238034</v>
+        <v>0.6774324361886666</v>
       </c>
       <c r="R14">
-        <v>0.6048134569238034</v>
+        <v>6.096891925697999</v>
       </c>
       <c r="S14">
-        <v>2.162817947451051E-05</v>
+        <v>2.344989020597434E-05</v>
       </c>
       <c r="T14">
-        <v>2.162817947451051E-05</v>
+        <v>2.344989020597434E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.109875835497129</v>
+        <v>0.1219473333333333</v>
       </c>
       <c r="H15">
-        <v>0.109875835497129</v>
+        <v>0.365842</v>
       </c>
       <c r="I15">
-        <v>0.0002797807413089924</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="J15">
-        <v>0.0002797807413089924</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.60844907802599</v>
+        <v>7.6722</v>
       </c>
       <c r="N15">
-        <v>7.60844907802599</v>
+        <v>23.0166</v>
       </c>
       <c r="O15">
-        <v>0.1068511083710899</v>
+        <v>0.1053895177178852</v>
       </c>
       <c r="P15">
-        <v>0.1068511083710899</v>
+        <v>0.1053895177178852</v>
       </c>
       <c r="Q15">
-        <v>0.8359846992854665</v>
+        <v>0.9356043308000001</v>
       </c>
       <c r="R15">
-        <v>0.8359846992854665</v>
+        <v>8.4204389772</v>
       </c>
       <c r="S15">
-        <v>2.989488230975102E-05</v>
+        <v>3.23867262053921E-05</v>
       </c>
       <c r="T15">
-        <v>2.989488230975102E-05</v>
+        <v>3.238672620539209E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.109875835497129</v>
+        <v>0.1219473333333333</v>
       </c>
       <c r="H16">
-        <v>0.109875835497129</v>
+        <v>0.365842</v>
       </c>
       <c r="I16">
-        <v>0.0002797807413089924</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="J16">
-        <v>0.0002797807413089924</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.01492483899505</v>
+        <v>7.724970666666667</v>
       </c>
       <c r="N16">
-        <v>7.01492483899505</v>
+        <v>23.174912</v>
       </c>
       <c r="O16">
-        <v>0.09851580611235186</v>
+        <v>0.106114404335759</v>
       </c>
       <c r="P16">
-        <v>0.09851580611235186</v>
+        <v>0.106114404335759</v>
       </c>
       <c r="Q16">
-        <v>0.7707707276341442</v>
+        <v>0.9420395728782223</v>
       </c>
       <c r="R16">
-        <v>0.7707707276341442</v>
+        <v>8.478356155903999</v>
       </c>
       <c r="S16">
-        <v>2.756282526476677E-05</v>
+        <v>3.260948749068306E-05</v>
       </c>
       <c r="T16">
-        <v>2.756282526476677E-05</v>
+        <v>3.260948749068306E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.10907623357881</v>
+        <v>0.1193106666666667</v>
       </c>
       <c r="H17">
-        <v>0.10907623357881</v>
+        <v>0.357932</v>
       </c>
       <c r="I17">
-        <v>0.0002777446865527559</v>
+        <v>0.0003006606535958338</v>
       </c>
       <c r="J17">
-        <v>0.0002777446865527559</v>
+        <v>0.0003006606535958338</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.76486082781604</v>
+        <v>4.260928666666667</v>
       </c>
       <c r="N17">
-        <v>3.76486082781604</v>
+        <v>12.782786</v>
       </c>
       <c r="O17">
-        <v>0.05287274031666574</v>
+        <v>0.05853043679913345</v>
       </c>
       <c r="P17">
-        <v>0.05287274031666574</v>
+        <v>0.05853043679913345</v>
       </c>
       <c r="Q17">
-        <v>0.4106568390465743</v>
+        <v>0.5083742398391111</v>
       </c>
       <c r="R17">
-        <v>0.4106568390465743</v>
+        <v>4.575368158552</v>
       </c>
       <c r="S17">
-        <v>1.468512268643759E-05</v>
+        <v>1.75977993832771E-05</v>
       </c>
       <c r="T17">
-        <v>1.468512268643759E-05</v>
+        <v>1.75977993832771E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.10907623357881</v>
+        <v>0.1193106666666667</v>
       </c>
       <c r="H18">
-        <v>0.10907623357881</v>
+        <v>0.357932</v>
       </c>
       <c r="I18">
-        <v>0.0002777446865527559</v>
+        <v>0.0003006606535958338</v>
       </c>
       <c r="J18">
-        <v>0.0002777446865527559</v>
+        <v>0.0003006606535958338</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>47.3133325243859</v>
+        <v>47.585289</v>
       </c>
       <c r="N18">
-        <v>47.3133325243859</v>
+        <v>142.755867</v>
       </c>
       <c r="O18">
-        <v>0.6644563128589953</v>
+        <v>0.6536574461270807</v>
       </c>
       <c r="P18">
-        <v>0.6644563128589953</v>
+        <v>0.6536574461270805</v>
       </c>
       <c r="Q18">
-        <v>5.160760109821824</v>
+        <v>5.677432554116</v>
       </c>
       <c r="R18">
-        <v>5.160760109821824</v>
+        <v>51.096892987044</v>
       </c>
       <c r="S18">
-        <v>0.0001845492103430216</v>
+        <v>0.0001965290749803516</v>
       </c>
       <c r="T18">
-        <v>0.0001845492103430216</v>
+        <v>0.0001965290749803515</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.10907623357881</v>
+        <v>0.1193106666666667</v>
       </c>
       <c r="H19">
-        <v>0.10907623357881</v>
+        <v>0.357932</v>
       </c>
       <c r="I19">
-        <v>0.0002777446865527559</v>
+        <v>0.0003006606535958338</v>
       </c>
       <c r="J19">
-        <v>0.0002777446865527559</v>
+        <v>0.0003006606535958338</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.50451747818206</v>
+        <v>5.555122999999999</v>
       </c>
       <c r="N19">
-        <v>5.50451747818206</v>
+        <v>16.665369</v>
       </c>
       <c r="O19">
-        <v>0.07730403234089711</v>
+        <v>0.07630819502014176</v>
       </c>
       <c r="P19">
-        <v>0.07730403234089711</v>
+        <v>0.07630819502014174</v>
       </c>
       <c r="Q19">
-        <v>0.6004120341888285</v>
+        <v>0.6627854285453333</v>
       </c>
       <c r="R19">
-        <v>0.6004120341888285</v>
+        <v>5.965068856908</v>
       </c>
       <c r="S19">
-        <v>2.147078423178657E-05</v>
+        <v>2.294287178947417E-05</v>
       </c>
       <c r="T19">
-        <v>2.147078423178657E-05</v>
+        <v>2.294287178947417E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.10907623357881</v>
+        <v>0.1193106666666667</v>
       </c>
       <c r="H20">
-        <v>0.10907623357881</v>
+        <v>0.357932</v>
       </c>
       <c r="I20">
-        <v>0.0002777446865527559</v>
+        <v>0.0003006606535958338</v>
       </c>
       <c r="J20">
-        <v>0.0002777446865527559</v>
+        <v>0.0003006606535958338</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.60844907802599</v>
+        <v>7.6722</v>
       </c>
       <c r="N20">
-        <v>7.60844907802599</v>
+        <v>23.0166</v>
       </c>
       <c r="O20">
-        <v>0.1068511083710899</v>
+        <v>0.1053895177178852</v>
       </c>
       <c r="P20">
-        <v>0.1068511083710899</v>
+        <v>0.1053895177178852</v>
       </c>
       <c r="Q20">
-        <v>0.8299009688072445</v>
+        <v>0.9153752968000001</v>
       </c>
       <c r="R20">
-        <v>0.8299009688072445</v>
+        <v>8.2383776712</v>
       </c>
       <c r="S20">
-        <v>2.967732760234293E-05</v>
+        <v>3.168648127920907E-05</v>
       </c>
       <c r="T20">
-        <v>2.967732760234293E-05</v>
+        <v>3.168648127920907E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.10907623357881</v>
+        <v>0.1193106666666667</v>
       </c>
       <c r="H21">
-        <v>0.10907623357881</v>
+        <v>0.357932</v>
       </c>
       <c r="I21">
-        <v>0.0002777446865527559</v>
+        <v>0.0003006606535958338</v>
       </c>
       <c r="J21">
-        <v>0.0002777446865527559</v>
+        <v>0.0003006606535958338</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.01492483899505</v>
+        <v>7.724970666666667</v>
       </c>
       <c r="N21">
-        <v>7.01492483899505</v>
+        <v>23.174912</v>
       </c>
       <c r="O21">
-        <v>0.09851580611235186</v>
+        <v>0.106114404335759</v>
       </c>
       <c r="P21">
-        <v>0.09851580611235186</v>
+        <v>0.106114404335759</v>
       </c>
       <c r="Q21">
-        <v>0.7651615802760202</v>
+        <v>0.9216714002204445</v>
       </c>
       <c r="R21">
-        <v>0.7651615802760202</v>
+        <v>8.295042601984001</v>
       </c>
       <c r="S21">
-        <v>2.736224168916724E-05</v>
+        <v>3.190442616352188E-05</v>
       </c>
       <c r="T21">
-        <v>2.736224168916724E-05</v>
+        <v>3.190442616352188E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>29.102000516101</v>
+        <v>31.471469</v>
       </c>
       <c r="H22">
-        <v>29.102000516101</v>
+        <v>94.414407</v>
       </c>
       <c r="I22">
-        <v>0.07410345724453825</v>
+        <v>0.07930751460468206</v>
       </c>
       <c r="J22">
-        <v>0.07410345724453825</v>
+        <v>0.07930751460468205</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.76486082781604</v>
+        <v>4.260928666666667</v>
       </c>
       <c r="N22">
-        <v>3.76486082781604</v>
+        <v>12.782786</v>
       </c>
       <c r="O22">
-        <v>0.05287274031666574</v>
+        <v>0.05853043679913345</v>
       </c>
       <c r="P22">
-        <v>0.05287274031666574</v>
+        <v>0.05853043679913345</v>
       </c>
       <c r="Q22">
-        <v>109.5649817541508</v>
+        <v>134.0976844442113</v>
       </c>
       <c r="R22">
-        <v>109.5649817541508</v>
+        <v>1206.879159997902</v>
       </c>
       <c r="S22">
-        <v>0.003918052851457613</v>
+        <v>0.004641903471265697</v>
       </c>
       <c r="T22">
-        <v>0.003918052851457613</v>
+        <v>0.004641903471265695</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>29.102000516101</v>
+        <v>31.471469</v>
       </c>
       <c r="H23">
-        <v>29.102000516101</v>
+        <v>94.414407</v>
       </c>
       <c r="I23">
-        <v>0.07410345724453825</v>
+        <v>0.07930751460468206</v>
       </c>
       <c r="J23">
-        <v>0.07410345724453825</v>
+        <v>0.07930751460468205</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>47.3133325243859</v>
+        <v>47.585289</v>
       </c>
       <c r="N23">
-        <v>47.3133325243859</v>
+        <v>142.755867</v>
       </c>
       <c r="O23">
-        <v>0.6644563128589953</v>
+        <v>0.6536574461270807</v>
       </c>
       <c r="P23">
-        <v>0.6644563128589953</v>
+        <v>0.6536574461270805</v>
       </c>
       <c r="Q23">
-        <v>1376.912627543137</v>
+        <v>1497.578947619541</v>
       </c>
       <c r="R23">
-        <v>1376.912627543137</v>
+        <v>13478.21052857587</v>
       </c>
       <c r="S23">
-        <v>0.04923850997081009</v>
+        <v>0.05183994745518263</v>
       </c>
       <c r="T23">
-        <v>0.04923850997081009</v>
+        <v>0.05183994745518261</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>29.102000516101</v>
+        <v>31.471469</v>
       </c>
       <c r="H24">
-        <v>29.102000516101</v>
+        <v>94.414407</v>
       </c>
       <c r="I24">
-        <v>0.07410345724453825</v>
+        <v>0.07930751460468206</v>
       </c>
       <c r="J24">
-        <v>0.07410345724453825</v>
+        <v>0.07930751460468205</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.50451747818206</v>
+        <v>5.555122999999999</v>
       </c>
       <c r="N24">
-        <v>5.50451747818206</v>
+        <v>16.665369</v>
       </c>
       <c r="O24">
-        <v>0.07730403234089711</v>
+        <v>0.07630819502014176</v>
       </c>
       <c r="P24">
-        <v>0.07730403234089711</v>
+        <v>0.07630819502014174</v>
       </c>
       <c r="Q24">
-        <v>160.1924704909413</v>
+        <v>174.827881285687</v>
       </c>
       <c r="R24">
-        <v>160.1924704909413</v>
+        <v>1573.450931571183</v>
       </c>
       <c r="S24">
-        <v>0.005728496055404071</v>
+        <v>0.00605181329101682</v>
       </c>
       <c r="T24">
-        <v>0.005728496055404071</v>
+        <v>0.006051813291016818</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>29.102000516101</v>
+        <v>31.471469</v>
       </c>
       <c r="H25">
-        <v>29.102000516101</v>
+        <v>94.414407</v>
       </c>
       <c r="I25">
-        <v>0.07410345724453825</v>
+        <v>0.07930751460468206</v>
       </c>
       <c r="J25">
-        <v>0.07410345724453825</v>
+        <v>0.07930751460468205</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.60844907802599</v>
+        <v>7.6722</v>
       </c>
       <c r="N25">
-        <v>7.60844907802599</v>
+        <v>23.0166</v>
       </c>
       <c r="O25">
-        <v>0.1068511083710899</v>
+        <v>0.1053895177178852</v>
       </c>
       <c r="P25">
-        <v>0.1068511083710899</v>
+        <v>0.1053895177178852</v>
       </c>
       <c r="Q25">
-        <v>221.4210889954406</v>
+        <v>241.4554044618</v>
       </c>
       <c r="R25">
-        <v>221.4210889954406</v>
+        <v>2173.0986401562</v>
       </c>
       <c r="S25">
-        <v>0.007918036540708585</v>
+        <v>0.008358180715591581</v>
       </c>
       <c r="T25">
-        <v>0.007918036540708585</v>
+        <v>0.008358180715591579</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>29.102000516101</v>
+        <v>31.471469</v>
       </c>
       <c r="H26">
-        <v>29.102000516101</v>
+        <v>94.414407</v>
       </c>
       <c r="I26">
-        <v>0.07410345724453825</v>
+        <v>0.07930751460468206</v>
       </c>
       <c r="J26">
-        <v>0.07410345724453825</v>
+        <v>0.07930751460468205</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.01492483899505</v>
+        <v>7.724970666666667</v>
       </c>
       <c r="N26">
-        <v>7.01492483899505</v>
+        <v>23.174912</v>
       </c>
       <c r="O26">
-        <v>0.09851580611235186</v>
+        <v>0.106114404335759</v>
       </c>
       <c r="P26">
-        <v>0.09851580611235186</v>
+        <v>0.106114404335759</v>
       </c>
       <c r="Q26">
-        <v>204.1483462848437</v>
+        <v>243.1161748619093</v>
       </c>
       <c r="R26">
-        <v>204.1483462848437</v>
+        <v>2188.045573757184</v>
       </c>
       <c r="S26">
-        <v>0.007300361826157886</v>
+        <v>0.008415669671625345</v>
       </c>
       <c r="T26">
-        <v>0.007300361826157886</v>
+        <v>0.008415669671625343</v>
       </c>
     </row>
   </sheetData>
